--- a/data/dcgr.net.xlsx
+++ b/data/dcgr.net.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D635"/>
+  <dimension ref="A1:D733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15285,6 +15285,2312 @@
         </is>
       </c>
     </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/tranduc.hrbp</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Trần Đức</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>HR thích đi long nhong - 0935 420 429 (Mr. Duc)</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>0935420429</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100089180220335</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Trần Dũng</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>mua bán kênh tik tok dịch vụ mxh
+call:0388388280</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>0388388280</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/Mi.dieu.ghb</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Diệu Mi</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>FULL DỊCH VỤ TIKTOK -SHOPEE - FACEBOOK - LAZADA
+HỢP TÁC: 079.209.83.86</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>0792098386</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100076840124521</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Ngọc Tân</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>Cung cấp các loại cây cảnh bonsai.LH-zalo 0948138689</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>0948138689</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=61550503002409</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Hoàng Chung</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>Marketing-Academy-Media-Land
+Hotline: 0344600150</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>0344600150</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/thietthoi.thang.35</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Nam Thắng</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>Sửa chữa - Lắp đặt Camera - Máy Tính - máy in - Đèn , quạt LN mặt trời tại nhà
+LH ZaLo 0946692386</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>0946692386</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/anh.doduc.7146</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Do Duc Anh</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>MB: 999.6.999.999.999 - VCB: 1298999999 ĐỖ ĐỨC ANH - SDT 0976752866</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>0976752866</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/ngocanh0392</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Toàn Anh</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>SỈ LẺ - TƯỢNG GỖ - KHAY TRÀ - HỘP TRÀ - CÁC MẶT HÀNG GỖ MỸ NGHỆ 0889967658 ( zalo ) 0838399088</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>0889967658, 0838399088</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/nguyenminh.tinkyland</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Nguyễn Thành Minh</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>Mua Bán Nhà Đất Thái Bình
+0963.266.207</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>0963266207</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100085847157147</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Lê Hùng</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>Hỗ Trợ Tất Cả Các Vấn Đề Liên Quan Tới FB - Tiktok
+Đào Tạo Học Viên
+Call/zalo : 0329.870.243</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>0329870243</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/ducduong1732</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Nguyễn Đức</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>Feeling's Wedding
+Tớ là nhíp ảnh giản dị có tâm
+Sdt ; 0866520276 &amp; 0562562555</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>0866520276, 0562562555</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/duongvantuyenvn</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Dương Văn Tuyền</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>✈ VIETTELTELECOM ✈
+(Internet, Truyền Hình, Sim Số, Camera, Định Vị Oto Xe Máy,...)
+☎ 098 520 6565</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>0985206565</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/trandanh.lam.7</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Trần Danh Lãm</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>NHANH.VN
+PHẦN MỀM QL BÁN HÀNG
+Quản lý Fanpage FB
+Đồng bộ sàn TMĐT
+Thiết kế Website
+call:0973195285</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>0973195285</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100009714454656</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Huỳnh Nguyễn Minh Dũng</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>Kiến trúc -Bất động sản
+0906.419.137</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>0906419137</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/Support.LuNguVCL29</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Đào Nguyễn Huy Sơn</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>Facebook Media 📩
+Hỗ Trợ Mọi Vấn Đề Về
+Facebook - Profile - Fanpage - Tiktok Instagram
+☎️ 0966562482</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>0966562482</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/DTM.MEDIAGORUP</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Trần Quốc Duy</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>✅Quảng Cáo Agency ⓕ Black Active✅
+👉MESS - LIVE - CĐ👈
+Call/Zalo ☎️033.5885.830
+🆃🅴🅻🅴 @Mediaads868</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>0335885830</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100052880015205</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Nguyễn Tiến Dũng</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>ads dạo với 4 năm kinh nghiệm chạy đủ thứ trên đời
+Zalo : 0963788497 liên hệ công việc</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>0963788497</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/danchoi.chuongmy</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Tiến Duy</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>buôn , sỉ, lẻ giá tốt .tuyển ctv bán quần áo nam ☎️: 036 361 6789 &amp; 0774761666. mbbank 0800193899999</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>0363616789, 0774761666, 08001938999</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/Support474747</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Nguyễn Huy Hùng</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>⚜️NHẬN QUẢNG CÁO PAGE♻️TĂNG SUB, CÀI LIKE,CMT
+,TỰ ĐỘNG⚜️BẢO KÊ, MỞ KHÓA FB 🔓
+☎️LIÊN HỆ📲0976651177☑</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>0976651177</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/hoai.hong.9083</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Tri Thức Việt MB</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>♻️Có ký túc xã và xe đưa đón công nhân miễn phí,hỗ trợ hồ sơ,chỉ cần cccd
+lh 0856378683 ♻️</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>0856378683</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/viaus2facom</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Đỗ Thuận</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>Admin tại: viaus2fa.com
+Zalo: 0868270296
+MBBANK: 0868270296
+Viettinbank: 100001517819</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>0868270296, 0868270296, 00001517819</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/huysneakerss</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn Huy</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>0394.75.1999 - Vận chuyển Trung - Việt. Shopcanhcam.com - Nhanh - Tiện - Rẻ</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>0394751999</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/duytrung.6789</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Duy Trung</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>🚘 FORD ĐÀ NẴNG 🚘
+🚦56 Điện Biên Phủ, Đà Nẵng🚦
+📲 Hotline tư vấn miễn phí : 0907.186.107</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>0907186107</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=61555616467006</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>PL Bao Thien</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>Hỗ trợ nhập hàng Trung Quốc tận xưởng
+Vận chuyển hàng Trung - Việt
+Mua bán RMB uy tín
+☎ 0775.299.596</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>0775299596</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/thanhcongluxstar</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Thành Công LuxStar</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>Mãi Mãi Tinh Thần Khởi Nghiệp
+Fourder : LuxStar
+☎️Contact for work:0988.353.419📞</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>0988353419</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/mytranads</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Thị Mỹ Trần</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>DIGITAL MARKETING
+ADS Fb - Tiktok -GG - Thiết kế Web &amp; Landing Page
+Zalo: 0777668334
+Tele: @thimy6868</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>0777668334</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/EmBon7777</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Quang Thành</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>𝐃𝐢𝐠𝐢𝐭𝐚𝐥 𝐦𝐚𝐫𝐤𝐞𝐭𝐢𝐧𝐠
+Zalo/Hotline: 0702 64 7777-Tele: @EmBon7777</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>0702647777</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/LUCKKYGROUP</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Ngô Thị Hải Yến</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>⭐🏆TỔNG ĐL PHẦN MỀM - DV FB⭐🏆🔥🔥 ĐÀO TẠO ĐẠI LÝ KD PHẦN MỀM🔥 AD ☎️
+:0374993023DUY NHẤT🌹🌹</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>0374993023</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/tuyenduc6868</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Nguyễn Tuyển Đức</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>TRẮM ĐEN MEDIA
+Mua bán Group/ Fanpage- Uy tín, chất lượng, giá rẻ
+Hotline/Zalo: 0866169197</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>0866169197</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/thaokute2408</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Huynh Ngoc Thien Thao</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>zalo 0931117964 ( xưởng may Nhật Tân ) nhận sản xuất từ A-Z mọi mặt hàng thời trang 🌤️</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>0931117964</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/huonglien.hoangthi.5</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Liên Hoàng</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>Chuyên cải tạo tất cả các hạng mục nhà ở,chung cư,văn phòng,caffe,biệt thự…
+LH:0343689381</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>0343689381</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/Zed.AD199</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Duyên Duyên</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>Xne logistics
+Vận chuyển quốc tế
+0394 765 702</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>0394765702</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/quangminh7989</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Minh Quang</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>Thiết kế website - landingpage, tối ưu SEO web
+Chạy ads fb tiktok gg
+0357415827</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>0357415827</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/nguoiconxuhue2011</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Nguyễn Đức</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>"Sự cẩu thả trong bất cứ nghề gì cũng là một sự bất lương."
+Call/ zalo : 0707 26 5555</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>0707265555</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/wallluckystart.info</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Nguyễn Hữu Toàn</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>Chạy quảng cáo tăng doanh thu. khôi phục tk bị hack. cung cấp giải pháp kinh doanh
+L.hệ :0567777762</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>0567777762</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/lac.lac1407</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Lục Tiểu Phụng</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>Đồng Giá GHN Siêu RẺ - 0939358581 Shop inbox em hỗ trợ nhiệt tình ạ</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>0939358581</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=61561373481072</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Ngô Tự Nông Thôn</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>Nhà trồng có trồng ít cây và nuôi gà
+| Zalo CV : 0566 46 68 68 |</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>0566466868</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=61561810358869</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Nguyễn Huy</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>🐘 Chạy Quảng Cáo FB, Live Stream 🐘
+Contact: 0399029779
+STK: 058585848888
+MB BANK..</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>0399029779, 05858584888</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100028263791077</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Kháng Nam Vũ</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>VPS US-VN-SIN-EU chính hãng
+Proxy sạch sẽ tốc độ cao
+Zalo: 0378695967
+Tele : @khangvps</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>0378695967</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100087365295392</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Linh Vương</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>Quần áo - Giày dép v.v
+Sđt 0349239681</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>0349239681</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/ngvananh298</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Ngô Thị Vân Anh</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>🎁 Công Ty TNHH TM Quà Việt
+📍Cung Cấp Quà Tặng Sự Kiện - Lễ - Tết Doanh Nghiệp
+📞 0975.003.053</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>0975003053</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/minthanads</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Manh Cao</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>Dịch Vụ FB: https://nguyenlieufb.shop
+STK: Vietcombank_CM88888_CAO VAN MANH
+SĐT: 0866.639.628</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>0866639628</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=61558365137291</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Hien Nguyen</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>Chuyên phòng trọ, căn hộ dịch vụ toàn TP HCM &lt;0901315531&gt;</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>0901315531</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/tungmlemlem6666</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Đặng Thanh Tùng</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>🍎IPHONE ZIN CHẤT -📲:0345.13.6262</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>0345136262</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100092655496703</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Nguyễn Phượng</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Wing Ecom- Agency TMĐT
+Vận hành gian hàng
+Shopee-Lazada
+Website: www.wingecom.com
+Zalo: 0967075248</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>0967075248</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=61563935804233</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Xuân Trang</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>💥 Vietnix.vn - Dịch vụ Hosting,
+VPS tốc độ cao💥
+Phone/zalo : 0828 309 227
+Telegram: @XuanTrang26</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>0828309227</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100006890323875</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Nguyen Quang Huy</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Contact for Work: 0866594619</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>0866594619</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=61550968760467</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Phạm Bá Vũ</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>Mbank: 0000191236789</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>00001912367</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/ngonguyenthienminh</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Ngô Nguyễn Thiên Minh</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>Chàng Trai Bán Like,Follow :FB-TikTok-Youtube -Ins
+Tuyển Dụng LĐPT-Cho Thuê CHDV
+LH: 0365.864.529</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>0365864529</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100049705080601</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Văn Bảo</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>CHUYÊN FILLER, BOTOX, GIẢM MỠ, MESO💉
+☎️ SĐT: 0387115297 ☎️ STK: vietcombank 9368338083</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>0387115297</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100012427382307</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Hoàng Hiệp</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>Hoàng Hiệp—Doggie Style 0389866444☎️ 8410999958888 Agribank</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>0389866444, 01099995888</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100064663001463</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Trần Đức Long</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>Thiết kế và in ấn menu - truyền thông
+Call : 0339.457.138</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>0339457138</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100022451700514</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Ngọc Thanh</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>💠CHUYÊN BOOK VÉ BAY &amp; TOUR RẺ✈️ 🌷INBOX/ZALO: 076.460.6668</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>0764606668</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/@mctrinhthanhtu/</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Trịnh Thanh Tú</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>☎️ 0799669222</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>0799669222</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100035003851749</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Lương Trang</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>Chạy quảng cáo Facebook, Tiktok
+Chạy quảng cáo Instagram
+Chăm sóc trang Fanpage
+lh 0924 913 162</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>0924913162</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/nguyenquangtruong08092002</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Nguyễn Quang Trường</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>Hotline: 09338262725
+0395000072</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>09338262725, 0395000072</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/vuroy99</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Vũ Royal</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>Booking KOLS-Influencer
+Quản Lý/Agency/BookShow
+KOL/Diễn Viên/Artist/BáoChí/Media
+📞:0964706981</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>0964706981</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=61560905171297</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Trần Việt</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>chuyên mỹ phẩm chính hãng hara beauty hỗ trợ cân bằng nội tiết tố
+0898078012</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>0898078012</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/deepsea5031</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>Hoàng Văn Đô</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>☎️ Liên Hệ : 0528277777 ( zalo )</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>0528277777</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=61565068178763</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Trương Hoàng Duyệt</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>Mất nick 1000+ Feedback 😭
+Mọi người ADD lại nick này nha
+Order Lux &amp; Hype
+Tuyển CTV ZL 0356761087</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>0356761087</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100059375455383</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Đào Duy Đông</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>𝐐𝐮ả𝐧𝐠 𝐜á𝐨 𝐅𝐁 𝐌𝐞𝐬𝐬 +𝐋𝐢𝐯𝐞
+Cấp + cho thuê Tk phí 3-5%
+💬 ℂ𝕒𝕝𝕝:0394195021</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>0394195021</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/xia.cr.1</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Lý Xia</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>Biên phiên dịch Khmer - Việt, Tour Guide
+Contact: 0925.303.524 (Zalo/Tele)
+Email: lyxia151@gmail.com</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>0925303524</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/ngctoai214</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Công Toại</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>👉 Nhận chạy quảng cáo FB - Tiktok 👈
+👀 0706065646 - 0588532102 👀
+Vietinbank: 102875456271</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>0706065646, 0588532102, 02875456271</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/Hoangvydigitalmkt04</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Hoàng Vy</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>Marketing Online - Academy- Media- Land
+Hotline: 0937500190</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>0937500190</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/kevins.khang</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Tấn Quang</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>Chuyên chạy Quảng cáo Facebook, Tiktok trên mọi lĩnh vực
+zalo: 0924 324 714</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>0924324714</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/thanhxu.designer</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Thành Xù</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>Chuyên thiết kế:
+✅Logo doanh nghiệp
+✅Bộ nhận diện thương hiệu
+✅Nhãn hiệu - bao bì
+Zalo: 0879 713 777</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>0879713777</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100048832476358</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Hoang Kim</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>0337781459
+Chuyên Quảng cáo đa nền tảng và Khoá học đào tạo Quảng cáo
+(FB-GG-TikTok-Zalo)</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>0337781459</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/AnhTuanHT95</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Tuấn Xe Điện</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>🥰🥰Mua Bán Sửa Chữa Xe Điện🥇🥇
+Bảo Hành Lưu Động :0886036257</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>0886036257</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/luutrungta</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Lưu Trung Tá</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>Lưu Trung Tá ( Trung Ta ADX - Max100 )
+0969156005
+Hệ Thống Phân Tích Độc Quyền Trên TTCK VN</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>0969156005</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/@QuangHieuSoDeep/</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Trần Quang Hiệu</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>HỖ TRỢ FACEBOOK
+TĂNG LIKE - SUB
+XOÁ - MỞ KHOÁ - BẢO MẬT TÀI KHOẢN FACEBOOK
+Contact : 0372.171.210</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>0372171210</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/quocvu.tran.900388</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Vũ Yên</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>Designer - Thiết kế Logo, Poster, Banner, Brochure, Catalogue, in ấn theo yêu cầu. 😘
+☎️0385 755 601</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>0385755601</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100051515922494</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Văn Đình Thắng</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>➖sỉ - lẻ pod auth 🛍️. KV : biên hoà🛒 0967065030</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>0967065030</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/sam.huong.522</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Nguyễn Xuân HưởnG</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>SK MEDIA
+⌚Cấp TKQC ăn Chia 7-3 FB,Nhận làm Wed ,Ladi Page GG
+Phí Hạt Rẻ
+Zalo : 0385 236 526</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>0385236526</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/anhtu9299</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Hoàng Thắng</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>HOÀNG THẮNG Authentic 🇫🇷 Chuyên đồ nam Lacoste 🐊 228 Nguyễn Văn Tuyết - Đống Đa - HN 📞 0899999962</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>0899999962</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/nhatnguyenlieuads</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Trần Văn Nhật</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>Nhận Chạy Quảng Cáo FB
+Cung Cấp Nguyên Liệu TKCN &amp; Page
+Zalo : 0867184075
+Tele : @nhattads</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>0867184075</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/linhxa1</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Cao Hoàng Vỹ</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>💎Luxman Vietnam💎
+HOTLINE: 076 6666 255
+💎 MBBank: 4566669666666 💎</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>0766666255</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100055551166231</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Nhật Sơn</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>Trung Tâm sửa chữa bảo dưỡng làm đẹp sế yêu cho các quý khách hàng Cao Bằng Holine 0327811397</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>0327811397</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/nguyenthuhuyenn13</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Nguyễn Thu Huyền</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>Tư vấn và support phần mềm Marketing Facebook - Instargram - Twister
+☎️Hotline/ Zalo: 096.135.2048</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>0961352048</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/quynhads123</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Võ Thị Như Quỳnh</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>⭕️NHẬN CHẠY QUẢNG CÁO FB-TIKTOK-INS-GG⭕️
+📞 0379 283 883 - 0813 965 084
+💸 Techcombank:19036936958015</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>0379283883, 0813965084, 03693695801</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=61565435113502</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Đức Nhân</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>Dịch vụ Fulfillment
+Mỹ - Canada - UK - Đức - Úc -New Zealand...
+Vận chuyển Quốc tế 2 chiều
+0862296862</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>0862296862</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/DinhHauWatch</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Đình HậuWatch</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>🔝 Chuyên Đồng Hồ Replica 1:1 - Chế Tác Nhẫn Vàng Trắng 💎
+☎️/Zalo 0833.64.8888 - 0862.96.8228</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>0833648888, 0862968228</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/dungtran2710</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Cris Trần</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>Contact for work: 091.777.4515
+Lazada | Shopee | Digital Marketing</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>0917774515</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/namninhbinh35</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Phương Nam Ninh Bình</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>☎️Call/Zalo: 08.579.44444 - 092.135.9999
+MUA BÁN - CẦM - GDH SIM SỐ ĐẸP
+https://zalo.me/g/vfargq080</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>0857944444, 0921359999</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/julie.hanon.54</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Trần Thành Trung</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>Nguyên Liệu ADS- Sđt Zalo:0867.16.26.16
+💻 MBbank: 2222.0804.9999
+vcb:9867.16.26.16
+Trần Thành Trung</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>0867162616</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/dogomanhson6666</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Sơn Đào</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>Chuyên sản xuất và cung cấp sản phẩm về gỗ quý hiếm... uy tín
+083.246.6666</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>0832466666</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/thanhdat.nttd</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Nguyễn Thái Thành Đạt</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>Sinh viên thích Khởi nghiệp !
+Liên hệ &amp; Hợp tác: 0888.86.4078</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>0888864078</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100026011512074</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Sơn Đỗ Trọng</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>Quần Áo Siêu Cấp-Likeauth🛍️
+Bán Hàng Bằng Sự Tử Tế☺️
+Sdt:0868191623!</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>0868191623</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/yangg8624</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Giang Giang</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>Graphic Design. Contact for work 0983908183</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>0983908183</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=61554878465893</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Nguyễn Vinh</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>Vinh Nguyễn Trùm sỉ Lô SLL
+Nhóm sỉ: https://zalo.me/g/smwkhl163
+Chốt sỉ: 09.6160.2125</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>0961602125</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/lephuocdatt</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Phước Đạt</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>@[100009737860777:9999:Things take time 💙]</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>00009737860</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100068858935502</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Hoan Văn</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>🍿 Có bán Netflix, Spotify Premium, Youtube Pre, Canva Pro, Grammarly...
+☎️Zalo 0355.956.993
+@Netflix</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>0355956993</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=61561035355879</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Tiệm Phim Retro</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>Spo.tify, You.Tube Premium, Canva Pro
+Uy Tín - Chính Chủ - Chất Lượng - Ổn định
+Zalo: 0355.956.993
+Fanpage chính : https://www.facebook.com/profile.php?id=100094888394653&amp;mibextid=LQQJ4d
+Link Feedback:https://www.facebook.com/profile.php?id=61561034102724</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>0355956993, 00094888394</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100070231335232</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Hoàng Hải</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>Admin Shopbmgiare. com
+zalo support 24/24: 0568246173
+VIB 300320036 Hoang Van Hai</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>0568246173</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100080070487948</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Trinh Nguyễn</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>Hỗ trợ gia công phần mềm Mini AI trên Zalo - CSKH tự động - ☎️Hotline liên hệ : 0979100901 ☎️</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>0979100901</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=61554860993262</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>Vũ Trần</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>Sacombank : 050116379217
+TRAN ANH VU</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>05011637921</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/TrangKhangFB247</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Trangs Mmo</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>Digital marketing, MMO
+Sđt: 0947108350
+Teckcombank: 19036875238014</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>0947108350, 03687523801</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100042006524773</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Ngân Thế Chuyển Nhà</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>- Chuyển Trọ Sinh Viên
+- Chuyển Nhà Trọn Gói
+- Chuyển Văn Phòng Công Ty
+☎ SĐT-ZALO: 0865.31.38.81 🌟</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>0865313881</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100071039755751</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Dương Ngọc Long</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>Chạy Quảng Cáo Facebook.
+Uy Tín Tạo Nên Thương Hiệu.
+Zalo:0937.109.423
+Tele:@ngoclongads</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>0937109423</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
